--- a/type-mapping.xlsx
+++ b/type-mapping.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="230">
   <si>
     <t>logical</t>
   </si>
@@ -117,12 +117,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>R Type</t>
-  </si>
-  <si>
-    <t>Java Type</t>
-  </si>
-  <si>
     <t>raw</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>byte[]</t>
   </si>
   <si>
-    <t>String[][]</t>
-  </si>
-  <si>
     <t>data frame</t>
   </si>
   <si>
@@ -300,18 +291,6 @@
     <t>java.math.BigDecimal</t>
   </si>
   <si>
-    <t>java.math.BigDecimal[][]</t>
-  </si>
-  <si>
-    <t>java.math.BigInteger[][]</t>
-  </si>
-  <si>
-    <t>data frame when setDataFrameRowMajor(TRUE)</t>
-  </si>
-  <si>
-    <t>data frame when setDataFrameRowMajor(FALSE)</t>
-  </si>
-  <si>
     <t>handled as a collection</t>
   </si>
   <si>
@@ -324,12 +303,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>factor when setCoerceFactor(TRUE)</t>
-  </si>
-  <si>
-    <t>factor when setCoerceFactor(FALSE)</t>
-  </si>
-  <si>
     <t>See comment.</t>
   </si>
   <si>
@@ -354,24 +327,9 @@
     <t>table</t>
   </si>
   <si>
-    <t>list of (lists of) matrices</t>
-  </si>
-  <si>
-    <t>list of (lists of) vectors</t>
-  </si>
-  <si>
-    <t>two-dimensional ragged array</t>
-  </si>
-  <si>
     <t>list of vectors</t>
   </si>
   <si>
-    <t>n-dimensional rectangular arrays where n &gt; 2</t>
-  </si>
-  <si>
-    <t>n-dimensional ragged arrays where n &gt; 2</t>
-  </si>
-  <si>
     <t>LengthOneVectorAsArray</t>
   </si>
   <si>
@@ -552,33 +510,6 @@
     <t>Object[]</t>
   </si>
   <si>
-    <t>double[][], Double[][]</t>
-  </si>
-  <si>
-    <t>float[][], Float[][]</t>
-  </si>
-  <si>
-    <t>long[][], Long[][]</t>
-  </si>
-  <si>
-    <t>int[][], Integer[][]</t>
-  </si>
-  <si>
-    <t>short[][], Short[][]</t>
-  </si>
-  <si>
-    <t>byte[][], Byte[][]</t>
-  </si>
-  <si>
-    <t>boolean[][], Boolean[][]</t>
-  </si>
-  <si>
-    <t>char[][], Character[][]</t>
-  </si>
-  <si>
-    <t>Object[][]</t>
-  </si>
-  <si>
     <t>NA_real_ maps to a reserved value Double.longBitsToDouble(0x7ff00000000007a2L)</t>
   </si>
   <si>
@@ -591,9 +522,6 @@
     <t>R factor values (levels) are stored internally as character vectors. An attempt is made to convert the factor into integer, numeric, or logical vectors. If conversion fails, the factor is treated as a character vector. Note that some precision may be lost for numeric (double) values.</t>
   </si>
   <si>
-    <t>vector of length one when setLengthOneVectorAsArray(FALSE)</t>
-  </si>
-  <si>
     <t>Map (java.util.LinkedHashMap)</t>
   </si>
   <si>
@@ -666,12 +594,6 @@
     <t>See documentation for setStringsAsFactors.</t>
   </si>
   <si>
-    <t>Consider using ND4J (nd4j.org) for high-dimensional arrays and fast linear algebra operations.</t>
-  </si>
-  <si>
-    <t>two-dimensional rectangular array (see documentation for setRowMajor)</t>
-  </si>
-  <si>
     <t>NA maps to Java true with a warning</t>
   </si>
   <si>
@@ -723,7 +645,76 @@
     <t>Only R to Java for data frames because the structures going from Java to R are inherently either row-major or row-minor.</t>
   </si>
   <si>
-    <t>matrix / n-dimensional arrays and tables (see documentation for setArrayOrder)</t>
+    <t>R Structure</t>
+  </si>
+  <si>
+    <t>Java Structure</t>
+  </si>
+  <si>
+    <t>matrix / n-dimensional arrays and tables (see documentation for array.order)</t>
+  </si>
+  <si>
+    <t>data frame when data.frame.row.major == FALSE</t>
+  </si>
+  <si>
+    <t>vector of length one when length.one.vector.as.array == FALSE and scalars.as.objects == TRUE</t>
+  </si>
+  <si>
+    <t>factor when coerce.factors == TRUE</t>
+  </si>
+  <si>
+    <t>factor when coerce.factors == FALSE</t>
+  </si>
+  <si>
+    <t>data frame when data.frame.row.major == TRUE</t>
+  </si>
+  <si>
+    <t>n-dimensional rectangular array (see documentation for array.order)</t>
+  </si>
+  <si>
+    <t>boolean[]...[], Boolean[]...[]</t>
+  </si>
+  <si>
+    <t>byte[]...[], Byte[]...[]</t>
+  </si>
+  <si>
+    <t>char[]...[], Character[]...[]</t>
+  </si>
+  <si>
+    <t>double[]...[], Double[]...[]</t>
+  </si>
+  <si>
+    <t>float[]...[], Float[]...[]</t>
+  </si>
+  <si>
+    <t>int[]...[], Integer[]...[]</t>
+  </si>
+  <si>
+    <t>java.math.BigDecimal[]...[]</t>
+  </si>
+  <si>
+    <t>java.math.BigInteger[]...[]</t>
+  </si>
+  <si>
+    <t>long[]...[], Long[]...[]</t>
+  </si>
+  <si>
+    <t>Object[]...[]</t>
+  </si>
+  <si>
+    <t>short[]...[], Short[]...[]</t>
+  </si>
+  <si>
+    <t>n-dimensional ragged array</t>
+  </si>
+  <si>
+    <t>Nested lists are supported.</t>
+  </si>
+  <si>
+    <t>vector of length one when length.one.vector.as.array == FALSE and scalars.as.objects == FALSE</t>
+  </si>
+  <si>
+    <t>///fix all of this</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,24 +1211,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -1250,10 +1241,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1264,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,7 +1269,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1286,24 +1280,24 @@
         <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1311,60 +1305,62 @@
         <v>24</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>145</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1372,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1394,27 +1390,27 @@
         <v>0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,73 +1418,71 @@
         <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1507,27 +1501,27 @@
         <v>0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,834 +1529,928 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>100</v>
+        <v>208</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>94</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>93</v>
+        <v>199</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>189</v>
+      <c r="A39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>158</v>
+        <v>144</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>190</v>
+      <c r="A40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>160</v>
+        <v>211</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="B52" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" s="11" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="15" t="b">
+        <v>37</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>35</v>
+      <c r="D73" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" s="13"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>182</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="B83" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>92</v>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C89" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" s="11" t="s">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C98" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
+      <c r="C116" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A50:G60">
-    <sortCondition ref="A50"/>
+  <sortState ref="A60:G70">
+    <sortCondition ref="A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2385,55 +2473,55 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2455,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2463,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -2474,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -2482,16 +2570,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2499,18 +2587,18 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -2518,10 +2606,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -2529,59 +2617,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2594,27 +2682,27 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,7 +2738,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,7 +2748,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,20 +2763,20 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,22 +2786,22 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,12 +2816,12 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2743,17 +2831,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2764,22 +2852,22 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -2789,7 +2877,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -2802,25 +2890,25 @@
         <v>9</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I74" t="s">
         <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -2830,19 +2918,19 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -2852,16 +2940,16 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G78" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I78" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -2877,17 +2965,17 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -2897,93 +2985,93 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
